--- a/test/test_singlezone/steady_10/正解値10.xlsx
+++ b/test/test_singlezone/steady_10/正解値10.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54AF42F9-DBE8-473C-A316-494C20D100B2}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5AEEDC-4FDF-4278-B066-8A2BAA896BB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
     <sheet name="正解値" sheetId="1" r:id="rId2"/>
+    <sheet name="正解値 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="9.9999999999999998E-13"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="125">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -2055,6 +2056,98 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420382</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D2FF89-34CA-4897-B8D9-2D891A6D6832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="1" r="42182" b="6988"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6925957" y="6747181"/>
+          <a:ext cx="3359577" cy="239041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1381606</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB50D23-56CD-4CED-A928-F1094FB0E0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="6740769"/>
+          <a:ext cx="1191106" cy="431000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
@@ -2581,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView showGridLines="0" topLeftCell="M7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2978,23 +3071,23 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="5">
         <f t="shared" ref="AB23:AB28" ca="1" si="9">$R23+($AC23-$R23)*SUM($X23,$Y23)/SUM($X23,$Y23,$W23)</f>
-        <v>15.29442778071061</v>
+        <v>12.519385676520812</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ref="AC23:AC28" ca="1" si="10">($D$48*$V23+$D$49*$U23)/SUM($V23,$U23)+$AA23/SUM($V23,$U23)</f>
-        <v>26.021271744868606</v>
+        <v>20.591841541018994</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ref="AD23:AD28" ca="1" si="11">($D$48-$AB23)*$V23</f>
-        <v>98.821813041908854</v>
+        <v>57.649551002371204</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ref="AE23:AE28" ca="1" si="12">($D$49-$AB23)*$U23</f>
-        <v>-1.3050497313817455</v>
+        <v>15.736411402157637</v>
       </c>
       <c r="AF23" s="4">
         <f t="shared" ref="AF23:AF28" ca="1" si="13">SUM($AD23,$AE23)</f>
-        <v>97.516763310527111</v>
+        <v>73.38596240452884</v>
       </c>
       <c r="AG23" s="1">
         <f>(1-$AG$27)*S23/SUM($S$23:$S$26,$S$28)</f>
@@ -3002,7 +3095,7 @@
       </c>
       <c r="AH23" s="15">
         <f ca="1">SUMPRODUCT(AB23:AB28,AG23:AG28)</f>
-        <v>14.766416920093679</v>
+        <v>19.555248260466804</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
@@ -3091,23 +3184,23 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>15.29442778071061</v>
+        <v>12.519385676520812</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.021271744868606</v>
+        <v>20.591841541018994</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>98.821813041908854</v>
+        <v>57.649551002371204</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.3050497313817455</v>
+        <v>15.736411402157637</v>
       </c>
       <c r="AF24" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>97.516763310527111</v>
+        <v>73.38596240452884</v>
       </c>
       <c r="AG24" s="1">
         <f>(1-$AG$27)*S24/SUM($S$23:$S$26,$S$28)</f>
@@ -3205,23 +3298,23 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="5">
         <f ca="1">$R25+($AC25-$R25)*SUM($X25,$Y25)/SUM($X25,$Y25,$W25)</f>
-        <v>8.5245512700515942</v>
+        <v>5.8722746154710688</v>
       </c>
       <c r="AC25" s="1">
         <f ca="1">($D$48*$V25+$D$49*$U25)/SUM($V25,$U25)+$AA25/SUM($V25,$U25)</f>
-        <v>26.021271744868606</v>
+        <v>20.591841541018994</v>
       </c>
       <c r="AD25" s="1">
         <f ca="1">($D$48-$AB25)*$V25</f>
-        <v>119.41018815097422</v>
+        <v>77.864574969357534</v>
       </c>
       <c r="AE25" s="1">
         <f ca="1">($D$49-$AB25)*$U25</f>
-        <v>39.650907074634752</v>
+        <v>55.949669808350727</v>
       </c>
       <c r="AF25" s="4">
         <f ca="1">SUM($AD25,$AE25)</f>
-        <v>159.06109522560897</v>
+        <v>133.81424477770827</v>
       </c>
       <c r="AG25" s="1">
         <f>(1-$AG$27)*S25/SUM($S$23:$S$26,$S$28)</f>
@@ -3313,23 +3406,23 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>15.294427780710608</v>
+        <v>12.519385676520811</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.021271744868606</v>
+        <v>20.591841541018994</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>98.821813041908854</v>
+        <v>57.649551002371219</v>
       </c>
       <c r="AE26" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.3050497313817349</v>
+        <v>15.736411402157648</v>
       </c>
       <c r="AF26" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>97.516763310527125</v>
+        <v>73.385962404528868</v>
       </c>
       <c r="AG26" s="1">
         <f>(1-$AG$27)*S26/SUM($S$23:$S$26,$S$28)</f>
@@ -3420,27 +3513,27 @@
       </c>
       <c r="AA27" s="1">
         <f>($D$37*$D$38)/$S27</f>
-        <v>0</v>
+        <v>298.43356700023321</v>
       </c>
       <c r="AB27" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>14.160205558488382</v>
+        <v>28.163761776756154</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.021271744868606</v>
+        <v>53.419533911044688</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>102.27118062363387</v>
+        <v>10.072274963167869</v>
       </c>
       <c r="AE27" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5.5566937980043765</v>
+        <v>-78.907913469869214</v>
       </c>
       <c r="AF27" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>107.82787442163824</v>
+        <v>-68.835638506701343</v>
       </c>
       <c r="AG27" s="1">
         <v>0.45</v>
@@ -3531,23 +3624,23 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>21.904205558488389</v>
+        <v>19.129163454298595</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.021271744868606</v>
+        <v>20.591841541018994</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>78.72032610013207</v>
+        <v>37.54806406059442</v>
       </c>
       <c r="AE28" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-41.292451678493791</v>
+        <v>-24.250990544954433</v>
       </c>
       <c r="AF28" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>37.427874421638279</v>
+        <v>13.297073515639987</v>
       </c>
       <c r="AG28" s="1">
         <f>(1-$AG$27)*S28/SUM($S$23:$S$26,$S$28)</f>
@@ -3586,11 +3679,11 @@
       <c r="F30" s="1"/>
       <c r="AC30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AC23:AC28)</f>
-        <v>26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686</v>
+        <v>20.591841541019, 20.591841541019, 20.591841541019, 20.591841541019, 53.4195339110447, 20.591841541019</v>
       </c>
       <c r="AF30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AF23:AF28)</f>
-        <v>97.5167633105271, 97.5167633105271, 159.061095225609, 97.5167633105271, 107.827874421638, 37.4278744216383</v>
+        <v>73.3859624045288, 73.3859624045288, 133.814244777708, 73.3859624045289, -68.8356385067013, 13.29707351564</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.4">
@@ -3708,7 +3801,7 @@
         <v>62</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>92</v>
@@ -3803,7 +3896,7 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">SUM($AD$23:$AD$28)</f>
-        <v>596.86713400046676</v>
+        <v>298.43356700023344</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
@@ -3833,7 +3926,7 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">SUM($D$45:$D$46)</f>
-        <v>596.86713400046676</v>
+        <v>298.43356700023344</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>2</v>
@@ -3850,7 +3943,7 @@
       </c>
       <c r="D48" s="5">
         <f ca="1">$D$48+($D$36-$D$47-D53)/$D$35</f>
-        <v>47.789049979359916</v>
+        <v>31.475730658264652</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
@@ -3865,7 +3958,7 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">SUMPRODUCT($U$23:$U$28,$S$23:$S$28,$AB$23:$AB$28)/SUMPRODUCT($U$23:$U$28,$S$23:$S$28)</f>
-        <v>15.078707621526696</v>
+        <v>15.120559479348042</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -3910,7 +4003,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">D48+D37*(1-D38)/D50</f>
-        <v>263.1090838900621</v>
+        <v>139.13574761361576</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
@@ -3925,7 +4018,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1">
         <f ca="1">D50*(D48-D52)</f>
-        <v>-596.86713400046642</v>
+        <v>-298.43356700023327</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>91</v>
@@ -3946,4 +4039,1375 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A0768E-5CDA-41D5-9EEE-AFD545298F30}">
+  <dimension ref="A1:AH53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="13" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.25" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.125" customWidth="1"/>
+    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH21" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1005</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" ref="I23:J26" si="0">RADIANS(90)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" ref="K23:K28" si="1">MAX(SIN($D$30)*COS(I23)+COS($D$30)*SIN(I23)*COS($D$29-J23),0)</f>
+        <v>8.3679195640621438E-17</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L28" si="2">(1+COS(I23))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" ref="M23:M28" si="3">1-L23</f>
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" ref="O23:O28" si="4">$D$26*K23+$D$27*L23+$D$33*M23</f>
+        <v>127.50000000000006</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R23" s="1">
+        <f>$D$25+O23*N23*0.04</f>
+        <v>4.0800000000000027</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U23" s="1">
+        <f>熱伝達率!$F4</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" ref="V23:V28" ca="1" si="5">1/$W23-$U23</f>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" ref="W23:W28" ca="1" si="6">1/SUM($V23,$U23)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" ref="Y23:Y26" si="7">0.012/0.16</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" ref="Z23:Z28" ca="1" si="8">1/(1/$V23+$Y23+$X23)</f>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="5">
+        <f t="shared" ref="AB23:AB28" ca="1" si="9">$R23+($AC23-$R23)*SUM($X23,$Y23)/SUM($X23,$Y23,$W23)</f>
+        <v>12.519385676520812</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" ref="AC23:AC28" ca="1" si="10">($D$48*$V23+$D$49*$U23)/SUM($V23,$U23)+$AA23/SUM($V23,$U23)</f>
+        <v>20.591841541018994</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" ref="AD23:AD28" ca="1" si="11">($D$48-$AB23)*$V23</f>
+        <v>57.649551002371204</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" ref="AE23:AE28" ca="1" si="12">($D$49-$AB23)*$U23</f>
+        <v>15.736411402157637</v>
+      </c>
+      <c r="AF23" s="4">
+        <f t="shared" ref="AF23:AF28" ca="1" si="13">SUM($AD23,$AE23)</f>
+        <v>73.38596240452884</v>
+      </c>
+      <c r="AG23" s="1">
+        <f>(1-$AG$27)*S23/SUM($S$23:$S$26,$S$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="AH23" s="15">
+        <f ca="1">SUMPRODUCT(AB23:AB28,AG23:AG28)</f>
+        <v>19.555248260466804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1">
+        <f>$D$22*$D$23</f>
+        <v>1206</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J24" s="1">
+        <f>-RADIANS(90)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3679195640621438E-17</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="4"/>
+        <v>127.50000000000006</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="1">
+        <f>$D$25+O24*N24*0.04</f>
+        <v>4.0800000000000027</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U24" s="1">
+        <f>熱伝達率!$F5</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>12.519385676520812</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>20.591841541018994</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>57.649551002371204</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>15.736411402157637</v>
+      </c>
+      <c r="AF24" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>73.38596240452884</v>
+      </c>
+      <c r="AG24" s="1">
+        <f>(1-$AG$27)*S24/SUM($S$23:$S$26,$S$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="1">
+        <f>RADIANS(90)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J25" s="1">
+        <f>RADIANS(0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <f>MAX(SIN($D$30)*COS(I25)+COS($D$30)*SIN(I25)*COS($D$29-J25),0)</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="L25" s="1">
+        <f>(1+COS(I25))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="1">
+        <f>1-L25</f>
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O25" s="1">
+        <f>$D$26*K25+$D$27*L25+$D$33*M25</f>
+        <v>733.71778264910711</v>
+      </c>
+      <c r="P25" s="1">
+        <f>$D$26*K25*$D$41+($D$27*L25+$D$33*M25)*$D$42</f>
+        <v>-38.062181611969919</v>
+      </c>
+      <c r="Q25" s="1">
+        <f>$D$26*K25*$D$39+($D$27*L25+$D$33*M25)*$D$40</f>
+        <v>596.86713400046642</v>
+      </c>
+      <c r="R25" s="1">
+        <f>$D$25+P25/4.65</f>
+        <v>-8.1854154004236381</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U25" s="1">
+        <f>熱伝達率!$F3</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="V25" s="1">
+        <f ca="1">1/$W25-$U25</f>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="W25" s="1">
+        <f ca="1">1/SUM($V25,$U25)</f>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y25" s="1">
+        <f ca="1">1/4.65-SUM(W25:X25)</f>
+        <v>6.5053763440860057E-2</v>
+      </c>
+      <c r="Z25" s="1">
+        <f ca="1">1/(1/$V25+$Y25+$X25)</f>
+        <v>2.3048160543761158</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="5">
+        <f ca="1">$R25+($AC25-$R25)*SUM($X25,$Y25)/SUM($X25,$Y25,$W25)</f>
+        <v>5.8722746154710688</v>
+      </c>
+      <c r="AC25" s="1">
+        <f ca="1">($D$48*$V25+$D$49*$U25)/SUM($V25,$U25)+$AA25/SUM($V25,$U25)</f>
+        <v>20.591841541018994</v>
+      </c>
+      <c r="AD25" s="1">
+        <f ca="1">($D$48-$AB25)*$V25</f>
+        <v>77.864574969357534</v>
+      </c>
+      <c r="AE25" s="1">
+        <f ca="1">($D$49-$AB25)*$U25</f>
+        <v>55.949669808350727</v>
+      </c>
+      <c r="AF25" s="4">
+        <f ca="1">SUM($AD25,$AE25)</f>
+        <v>133.81424477770827</v>
+      </c>
+      <c r="AG25" s="1">
+        <f>(1-$AG$27)*S25/SUM($S$23:$S$26,$S$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="1">
+        <v>700</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J26" s="1">
+        <f>RADIANS(180)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="4"/>
+        <v>127.5</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" ref="R26:R28" si="14">$D$25+O26*N26*0.04</f>
+        <v>4.08</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U26" s="1">
+        <f>熱伝達率!$F6</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>12.519385676520811</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>20.591841541018994</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>57.649551002371219</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>15.736411402157648</v>
+      </c>
+      <c r="AF26" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>73.385962404528868</v>
+      </c>
+      <c r="AG26" s="1">
+        <f>(1-$AG$27)*S26/SUM($S$23:$S$26,$S$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1">
+        <v>200</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="H27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1">
+        <f>RADIANS(180)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" ref="J27:J28" si="15">RADIANS(0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="14"/>
+        <v>1.76</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U27" s="1">
+        <f>熱伝達率!$F7</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y27" s="1">
+        <f>0.012/0.16</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="AA27" s="1">
+        <f>($D$37*$D$38)/$S27</f>
+        <v>298.43356700023321</v>
+      </c>
+      <c r="AB27" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>28.163761776756154</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>53.419533911044688</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>10.072274963167869</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>-78.907913469869214</v>
+      </c>
+      <c r="AF27" s="4">
+        <f ca="1">SUM($AD27,$AE27)+AA27</f>
+        <v>229.59792849353187</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="H28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="1">
+        <f>RADIANS(0)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="14"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U28" s="1">
+        <f>熱伝達率!$F8</f>
+        <v>6.0497346947957293</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>0.012/0.16</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.2531639699224311</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>19.129163454298595</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>20.591841541018994</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>37.54806406059442</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>-24.250990544954433</v>
+      </c>
+      <c r="AF28" s="4">
+        <f t="shared" ca="1" si="13"/>
+        <v>13.297073515639987</v>
+      </c>
+      <c r="AG28" s="1">
+        <f>(1-$AG$27)*S28/SUM($S$23:$S$26,$S$28)</f>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1">
+        <f>RADIANS(0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1">
+        <f>RADIANS(30)</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="AC30" s="23" t="str">
+        <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AC23:AC28)</f>
+        <v>20.591841541019, 20.591841541019, 20.591841541019, 20.591841541019, 53.4195339110447, 20.591841541019</v>
+      </c>
+      <c r="AF30" s="23" t="str">
+        <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AF23:AF28)</f>
+        <v>73.3859624045288, 73.3859624045288, 133.814244777708, 73.3859624045289, 229.597928493532, 13.29707351564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1">
+        <f>D26*SIN(D30)+D27</f>
+        <v>550</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D31*D32</f>
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
+        <f ca="1">SUMPRODUCT($Z$23:$Z$28,$S$23:$S$28)+$D$24*$D$34</f>
+        <v>13.570635903988272</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1">
+        <f>Q25*S25</f>
+        <v>596.86713400046642</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.83490926199443005</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.71161013710588705</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="22">
+        <v>-5.6023040000000003E-2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="22">
+        <v>-3.2157008046334798E-2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="1">
+        <f ca="1">SUM($AD$23:$AD$28)</f>
+        <v>298.43356700023344</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1">
+        <f ca="1">$D$24*$D$34*($D$48-$D$25)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="27"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1">
+        <f ca="1">SUM($D$45:$D$46)</f>
+        <v>298.43356700023344</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="27"/>
+      <c r="B48" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="5">
+        <f ca="1">$D$48+($D$36-$D$47-D53)/$D$35</f>
+        <v>31.475730658264652</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="1">
+        <f ca="1">SUMPRODUCT($U$23:$U$28,$S$23:$S$28,$AB$23:$AB$28)/SUMPRODUCT($U$23:$U$28,$S$23:$S$28)</f>
+        <v>15.120559479348042</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="20"/>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1">
+        <v>12600</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="20"/>
+      <c r="B52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
+        <f ca="1">D48+D37*(1-D38)/D50</f>
+        <v>139.13574761361576</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="21"/>
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1">
+        <f ca="1">D50*(D48-D52)</f>
+        <v>-298.43356700023327</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B49"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/test/test_singlezone/steady_10/正解値10.xlsx
+++ b/test/test_singlezone/steady_10/正解値10.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5AEEDC-4FDF-4278-B066-8A2BAA896BB6}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50ADEF6-A692-4E3E-9AC4-7F11DF0F9925}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
-    <sheet name="正解値" sheetId="1" r:id="rId2"/>
-    <sheet name="正解値 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="正解値" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="9.9999999999999998E-13"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -879,19 +878,6 @@
     <t>W/㎡</t>
   </si>
   <si>
-    <t>透過日射</t>
-    <rPh sb="0" eb="2">
-      <t>トウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作用温度は、室空気温度、微小球温度、対流熱伝達率、放射熱伝達率より求める。床では、単位面積あたり透過日射も考慮する。</t>
     <rPh sb="0" eb="2">
       <t>サヨウ</t>
@@ -1166,10 +1152,6 @@
     <rPh sb="0" eb="2">
       <t>ネツリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1965,98 +1947,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>420382</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>79681</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>36634</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>80597</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2558B6F7-449A-BAB8-0F07-CA94D275D24D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="1" r="42182" b="6988"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6941344" y="6849758"/>
-          <a:ext cx="3360309" cy="242704"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1381606</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28019</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47381CF1-D34B-0AC5-255A-5FD6ECA0E073}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10455519" y="6843346"/>
-          <a:ext cx="1191106" cy="438327"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2448,7 +2338,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -2469,28 +2359,28 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="H2" s="9">
         <v>1.199999999980782</v>
@@ -2498,10 +2388,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10">
-        <f>正解値!$S25</f>
+        <f>正解値!S23</f>
         <v>1</v>
       </c>
       <c r="C3" s="11">
@@ -2520,7 +2410,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="6">
         <v>20</v>
@@ -2528,10 +2418,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="10">
-        <f>正解値!$S23</f>
+        <f>正解値!S24</f>
         <v>1</v>
       </c>
       <c r="C4" s="11">
@@ -2552,10 +2442,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="10">
-        <f>正解値!$S24</f>
+        <f>正解値!S25</f>
         <v>1</v>
       </c>
       <c r="C5" s="11">
@@ -2576,10 +2466,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10">
-        <f>正解値!$S26</f>
+        <f>正解値!S26</f>
         <v>1</v>
       </c>
       <c r="C6" s="11">
@@ -2600,10 +2490,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10">
-        <f>正解値!$S27</f>
+        <f>正解値!S27</f>
         <v>1</v>
       </c>
       <c r="C7" s="11">
@@ -2624,10 +2514,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="10">
-        <f>正解値!$S28</f>
+        <f>正解値!S28</f>
         <v>1</v>
       </c>
       <c r="C8" s="11">
@@ -2648,7 +2538,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="10">
         <f>SUM(B3:B8)</f>
@@ -2671,11 +2561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A0768E-5CDA-41D5-9EEE-AFD545298F30}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2713,12 +2603,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -2733,12 +2623,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -2763,7 +2653,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
@@ -2778,7 +2668,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.4">
@@ -2793,7 +2683,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.4">
       <c r="K20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.4">
@@ -2813,31 +2703,31 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>28</v>
@@ -2846,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>22</v>
@@ -2867,13 +2757,13 @@
         <v>27</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AB21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>31</v>
@@ -2885,10 +2775,10 @@
         <v>29</v>
       </c>
       <c r="AG21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH21" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="AH21" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.4">
@@ -2910,31 +2800,31 @@
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>23</v>
@@ -2943,7 +2833,7 @@
         <v>26</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>25</v>
@@ -3030,10 +2920,10 @@
         <v>127.50000000000006</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R23" s="1">
         <f>$D$25+O23*N23*0.04</f>
@@ -3071,23 +2961,23 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="5">
         <f t="shared" ref="AB23:AB28" ca="1" si="9">$R23+($AC23-$R23)*SUM($X23,$Y23)/SUM($X23,$Y23,$W23)</f>
-        <v>12.519385676520812</v>
+        <v>12.829762287674662</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ref="AC23:AC28" ca="1" si="10">($D$48*$V23+$D$49*$U23)/SUM($V23,$U23)+$AA23/SUM($V23,$U23)</f>
-        <v>20.591841541018994</v>
+        <v>21.199100128059115</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ref="AD23:AD28" ca="1" si="11">($D$48-$AB23)*$V23</f>
-        <v>57.649551002371204</v>
+        <v>55.215749394361247</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ref="AE23:AE28" ca="1" si="12">($D$49-$AB23)*$U23</f>
-        <v>15.736411402157637</v>
+        <v>20.869140063679165</v>
       </c>
       <c r="AF23" s="4">
         <f t="shared" ref="AF23:AF28" ca="1" si="13">SUM($AD23,$AE23)</f>
-        <v>73.38596240452884</v>
+        <v>76.084889458040408</v>
       </c>
       <c r="AG23" s="1">
         <f>(1-$AG$27)*S23/SUM($S$23:$S$26,$S$28)</f>
@@ -3095,7 +2985,7 @@
       </c>
       <c r="AH23" s="15">
         <f ca="1">SUMPRODUCT(AB23:AB28,AG23:AG28)</f>
-        <v>19.555248260466804</v>
+        <v>19.850510951884917</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
@@ -3143,10 +3033,10 @@
         <v>127.50000000000006</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R24" s="1">
         <f>$D$25+O24*N24*0.04</f>
@@ -3184,23 +3074,23 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>12.519385676520812</v>
+        <v>12.829762287674662</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>20.591841541018994</v>
+        <v>21.199100128059115</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>57.649551002371204</v>
+        <v>55.215749394361247</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>15.736411402157637</v>
+        <v>20.869140063679165</v>
       </c>
       <c r="AF24" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>73.38596240452884</v>
+        <v>76.084889458040408</v>
       </c>
       <c r="AG24" s="1">
         <f>(1-$AG$27)*S24/SUM($S$23:$S$26,$S$28)</f>
@@ -3225,7 +3115,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="H25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I25" s="1">
         <f>RADIANS(90)</f>
@@ -3256,15 +3146,15 @@
       </c>
       <c r="P25" s="1">
         <f>$D$26*K25*$D$41+($D$27*L25+$D$33*M25)*$D$42</f>
-        <v>-38.062181611969919</v>
+        <v>23.716483626680947</v>
       </c>
       <c r="Q25" s="1">
         <f>$D$26*K25*$D$39+($D$27*L25+$D$33*M25)*$D$40</f>
-        <v>596.86713400046642</v>
+        <v>536.69911960749562</v>
       </c>
       <c r="R25" s="1">
         <f>$D$25+P25/4.65</f>
-        <v>-8.1854154004236381</v>
+        <v>5.1003190595012784</v>
       </c>
       <c r="S25" s="1">
         <v>1</v>
@@ -3298,23 +3188,23 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="5">
         <f ca="1">$R25+($AC25-$R25)*SUM($X25,$Y25)/SUM($X25,$Y25,$W25)</f>
-        <v>5.8722746154710688</v>
+        <v>12.96457361149178</v>
       </c>
       <c r="AC25" s="1">
         <f ca="1">($D$48*$V25+$D$49*$U25)/SUM($V25,$U25)+$AA25/SUM($V25,$U25)</f>
-        <v>20.591841541018994</v>
+        <v>21.199100128059115</v>
       </c>
       <c r="AD25" s="1">
         <f ca="1">($D$48-$AB25)*$V25</f>
-        <v>77.864574969357534</v>
+        <v>54.805764648062485</v>
       </c>
       <c r="AE25" s="1">
         <f ca="1">($D$49-$AB25)*$U25</f>
-        <v>55.949669808350727</v>
+        <v>20.053567320731403</v>
       </c>
       <c r="AF25" s="4">
         <f ca="1">SUM($AD25,$AE25)</f>
-        <v>133.81424477770827</v>
+        <v>74.859331968793896</v>
       </c>
       <c r="AG25" s="1">
         <f>(1-$AG$27)*S25/SUM($S$23:$S$26,$S$28)</f>
@@ -3325,13 +3215,13 @@
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1">
         <v>700</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1"/>
       <c r="H26" s="2" t="s">
@@ -3365,10 +3255,10 @@
         <v>127.5</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" ref="R26:R28" si="14">$D$25+O26*N26*0.04</f>
@@ -3406,23 +3296,23 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>12.519385676520811</v>
+        <v>12.82976228767466</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>20.591841541018994</v>
+        <v>21.199100128059115</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>57.649551002371219</v>
+        <v>55.215749394361261</v>
       </c>
       <c r="AE26" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>15.736411402157648</v>
+        <v>20.869140063679176</v>
       </c>
       <c r="AF26" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>73.385962404528868</v>
+        <v>76.084889458040436</v>
       </c>
       <c r="AG26" s="1">
         <f>(1-$AG$27)*S26/SUM($S$23:$S$26,$S$28)</f>
@@ -3433,13 +3323,13 @@
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1">
         <v>200</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1"/>
       <c r="H27" s="2" t="s">
@@ -3473,10 +3363,10 @@
         <v>55</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="14"/>
@@ -3513,27 +3403,27 @@
       </c>
       <c r="AA27" s="1">
         <f>($D$37*$D$38)/$S27</f>
-        <v>298.43356700023321</v>
+        <v>268.34955980374781</v>
       </c>
       <c r="AB27" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>28.163761776756154</v>
+        <v>26.782748649974266</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>53.419533911044688</v>
+        <v>50.717551706471411</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>10.072274963167869</v>
+        <v>12.78228452001694</v>
       </c>
       <c r="AE27" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-78.907913469869214</v>
+        <v>-63.542725628336406</v>
       </c>
       <c r="AF27" s="4">
-        <f t="shared" ca="1" si="13"/>
-        <v>-68.835638506701343</v>
+        <f ca="1">SUM($AD27,$AE27)+AA27</f>
+        <v>217.58911869542834</v>
       </c>
       <c r="AG27" s="1">
         <v>0.45</v>
@@ -3543,13 +3433,13 @@
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1"/>
       <c r="H28" s="2" t="s">
@@ -3583,10 +3473,10 @@
         <v>550</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="14"/>
@@ -3624,23 +3514,23 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>19.129163454298595</v>
+        <v>19.439540065452444</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>20.591841541018994</v>
+        <v>21.199100128059115</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>37.54806406059442</v>
+        <v>35.114262452584462</v>
       </c>
       <c r="AE28" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-24.250990544954433</v>
+        <v>-19.118261883432904</v>
       </c>
       <c r="AF28" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>13.297073515639987</v>
+        <v>15.996000569151558</v>
       </c>
       <c r="AG28" s="1">
         <f>(1-$AG$27)*S28/SUM($S$23:$S$26,$S$28)</f>
@@ -3651,14 +3541,14 @@
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1">
         <f>RADIANS(0)</f>
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F29" s="1"/>
       <c r="H29" s="3"/>
@@ -3667,37 +3557,37 @@
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1">
         <f>RADIANS(30)</f>
         <v>0.52359877559829882</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F30" s="1"/>
       <c r="AC30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AC23:AC28)</f>
-        <v>20.591841541019, 20.591841541019, 20.591841541019, 20.591841541019, 53.4195339110447, 20.591841541019</v>
+        <v>21.1991001280591, 21.1991001280591, 21.1991001280591, 21.1991001280591, 50.7175517064714, 21.1991001280591</v>
       </c>
       <c r="AF30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AF23:AF28)</f>
-        <v>73.3859624045288, 73.3859624045288, 133.814244777708, 73.3859624045289, -68.8356385067013, 13.29707351564</v>
+        <v>76.0848894580404, 76.0848894580404, 74.8593319687939, 76.0848894580404, 217.589118695428, 15.9960005691516</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1">
         <f>D26*SIN(D30)+D27</f>
         <v>550</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="1"/>
       <c r="H31" s="3"/>
@@ -3706,13 +3596,13 @@
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1">
         <v>0.1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1"/>
       <c r="H32" s="3"/>
@@ -3721,14 +3611,14 @@
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1">
         <f>D31*D32</f>
         <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -3738,7 +3628,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -3787,7 +3677,7 @@
       </c>
       <c r="D37" s="1">
         <f>Q25*S25</f>
-        <v>596.86713400046642</v>
+        <v>536.69911960749562</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>2</v>
@@ -3804,23 +3694,23 @@
         <v>0.5</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1">
-        <v>0.83490926199443005</v>
+        <v>0.75058878824068798</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -3828,13 +3718,13 @@
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="1">
-        <v>0.71161013710588705</v>
+        <v>0.64061842132506297</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -3842,29 +3732,29 @@
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="22">
-        <v>-5.6023040000000003E-2</v>
+        <v>2.9463573123928902E-2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" s="22">
-        <v>-3.2157008046334798E-2</v>
+        <v>4.5922679675081901E-2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -3896,7 +3786,7 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">SUM($AD$23:$AD$28)</f>
-        <v>298.43356700023344</v>
+        <v>268.34955980374764</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
@@ -3926,7 +3816,7 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">SUM($D$45:$D$46)</f>
-        <v>298.43356700023344</v>
+        <v>268.34955980374764</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>2</v>
@@ -3943,7 +3833,7 @@
       </c>
       <c r="D48" s="5">
         <f ca="1">$D$48+($D$36-$D$47-D53)/$D$35</f>
-        <v>31.475730658264652</v>
+        <v>30.985823796323277</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
@@ -3958,7 +3848,7 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">SUMPRODUCT($U$23:$U$28,$S$23:$S$28,$AB$23:$AB$28)/SUMPRODUCT($U$23:$U$28,$S$23:$S$28)</f>
-        <v>15.120559479348042</v>
+        <v>16.279358198323745</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -3967,10 +3857,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
@@ -3984,26 +3874,26 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
         <v>12600</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="20"/>
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">D48+D37*(1-D38)/D50</f>
-        <v>139.13574761361576</v>
+        <v>127.79302430272581</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
@@ -4013,1383 +3903,12 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="21"/>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
         <f ca="1">D50*(D48-D52)</f>
-        <v>-298.43356700023327</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B47"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A0768E-5CDA-41D5-9EEE-AFD545298F30}">
-  <dimension ref="A1:AH53"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="13" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.125" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="K20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH21" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1005</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" ref="I23:J26" si="0">RADIANS(90)</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" ref="K23:K28" si="1">MAX(SIN($D$30)*COS(I23)+COS($D$30)*SIN(I23)*COS($D$29-J23),0)</f>
-        <v>8.3679195640621438E-17</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" ref="L23:L28" si="2">(1+COS(I23))/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" ref="M23:M28" si="3">1-L23</f>
-        <v>0.5</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" ref="O23:O28" si="4">$D$26*K23+$D$27*L23+$D$33*M23</f>
-        <v>127.50000000000006</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R23" s="1">
-        <f>$D$25+O23*N23*0.04</f>
-        <v>4.0800000000000027</v>
-      </c>
-      <c r="S23" s="1">
-        <v>1</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="U23" s="1">
-        <f>熱伝達率!$F4</f>
-        <v>6.0497346947957293</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" ref="V23:V28" ca="1" si="5">1/$W23-$U23</f>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" ref="W23:W28" ca="1" si="6">1/SUM($V23,$U23)</f>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Y23" s="1">
-        <f t="shared" ref="Y23:Y26" si="7">0.012/0.16</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z23" s="1">
-        <f t="shared" ref="Z23:Z28" ca="1" si="8">1/(1/$V23+$Y23+$X23)</f>
-        <v>2.2531639699224311</v>
-      </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="5">
-        <f t="shared" ref="AB23:AB28" ca="1" si="9">$R23+($AC23-$R23)*SUM($X23,$Y23)/SUM($X23,$Y23,$W23)</f>
-        <v>12.519385676520812</v>
-      </c>
-      <c r="AC23" s="1">
-        <f t="shared" ref="AC23:AC28" ca="1" si="10">($D$48*$V23+$D$49*$U23)/SUM($V23,$U23)+$AA23/SUM($V23,$U23)</f>
-        <v>20.591841541018994</v>
-      </c>
-      <c r="AD23" s="1">
-        <f t="shared" ref="AD23:AD28" ca="1" si="11">($D$48-$AB23)*$V23</f>
-        <v>57.649551002371204</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" ref="AE23:AE28" ca="1" si="12">($D$49-$AB23)*$U23</f>
-        <v>15.736411402157637</v>
-      </c>
-      <c r="AF23" s="4">
-        <f t="shared" ref="AF23:AF28" ca="1" si="13">SUM($AD23,$AE23)</f>
-        <v>73.38596240452884</v>
-      </c>
-      <c r="AG23" s="1">
-        <f>(1-$AG$27)*S23/SUM($S$23:$S$26,$S$28)</f>
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="AH23" s="15">
-        <f ca="1">SUMPRODUCT(AB23:AB28,AG23:AG28)</f>
-        <v>19.555248260466804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1">
-        <f>$D$22*$D$23</f>
-        <v>1206</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="J24" s="1">
-        <f>-RADIANS(90)</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>8.3679195640621438E-17</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="4"/>
-        <v>127.50000000000006</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R24" s="1">
-        <f>$D$25+O24*N24*0.04</f>
-        <v>4.0800000000000027</v>
-      </c>
-      <c r="S24" s="1">
-        <v>1</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="U24" s="1">
-        <f>熱伝達率!$F5</f>
-        <v>6.0497346947957293</v>
-      </c>
-      <c r="V24" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Y24" s="1">
-        <f t="shared" si="7"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z24" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2531639699224311</v>
-      </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>12.519385676520812</v>
-      </c>
-      <c r="AC24" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>20.591841541018994</v>
-      </c>
-      <c r="AD24" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>57.649551002371204</v>
-      </c>
-      <c r="AE24" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>15.736411402157637</v>
-      </c>
-      <c r="AF24" s="4">
-        <f t="shared" ca="1" si="13"/>
-        <v>73.38596240452884</v>
-      </c>
-      <c r="AG24" s="1">
-        <f>(1-$AG$27)*S24/SUM($S$23:$S$26,$S$28)</f>
-        <v>0.11000000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="H25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="1">
-        <f>RADIANS(90)</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="J25" s="1">
-        <f>RADIANS(0)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <f>MAX(SIN($D$30)*COS(I25)+COS($D$30)*SIN(I25)*COS($D$29-J25),0)</f>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="L25" s="1">
-        <f>(1+COS(I25))/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="M25" s="1">
-        <f>1-L25</f>
-        <v>0.5</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O25" s="1">
-        <f>$D$26*K25+$D$27*L25+$D$33*M25</f>
-        <v>733.71778264910711</v>
-      </c>
-      <c r="P25" s="1">
-        <f>$D$26*K25*$D$41+($D$27*L25+$D$33*M25)*$D$42</f>
-        <v>-38.062181611969919</v>
-      </c>
-      <c r="Q25" s="1">
-        <f>$D$26*K25*$D$39+($D$27*L25+$D$33*M25)*$D$40</f>
-        <v>596.86713400046642</v>
-      </c>
-      <c r="R25" s="1">
-        <f>$D$25+P25/4.65</f>
-        <v>-8.1854154004236381</v>
-      </c>
-      <c r="S25" s="1">
-        <v>1</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="U25" s="1">
-        <f>熱伝達率!$F3</f>
-        <v>6.0497346947957293</v>
-      </c>
-      <c r="V25" s="1">
-        <f ca="1">1/$W25-$U25</f>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="W25" s="1">
-        <f ca="1">1/SUM($V25,$U25)</f>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Y25" s="1">
-        <f ca="1">1/4.65-SUM(W25:X25)</f>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="Z25" s="1">
-        <f ca="1">1/(1/$V25+$Y25+$X25)</f>
-        <v>2.3048160543761158</v>
-      </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="5">
-        <f ca="1">$R25+($AC25-$R25)*SUM($X25,$Y25)/SUM($X25,$Y25,$W25)</f>
-        <v>5.8722746154710688</v>
-      </c>
-      <c r="AC25" s="1">
-        <f ca="1">($D$48*$V25+$D$49*$U25)/SUM($V25,$U25)+$AA25/SUM($V25,$U25)</f>
-        <v>20.591841541018994</v>
-      </c>
-      <c r="AD25" s="1">
-        <f ca="1">($D$48-$AB25)*$V25</f>
-        <v>77.864574969357534</v>
-      </c>
-      <c r="AE25" s="1">
-        <f ca="1">($D$49-$AB25)*$U25</f>
-        <v>55.949669808350727</v>
-      </c>
-      <c r="AF25" s="4">
-        <f ca="1">SUM($AD25,$AE25)</f>
-        <v>133.81424477770827</v>
-      </c>
-      <c r="AG25" s="1">
-        <f>(1-$AG$27)*S25/SUM($S$23:$S$26,$S$28)</f>
-        <v>0.11000000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="1">
-        <v>700</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="H26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="J26" s="1">
-        <f>RADIANS(180)</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="4"/>
-        <v>127.5</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" ref="R26:R28" si="14">$D$25+O26*N26*0.04</f>
-        <v>4.08</v>
-      </c>
-      <c r="S26" s="1">
-        <v>1</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="U26" s="1">
-        <f>熱伝達率!$F6</f>
-        <v>6.0497346947957293</v>
-      </c>
-      <c r="V26" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="W26" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Y26" s="1">
-        <f t="shared" si="7"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z26" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2531639699224311</v>
-      </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>12.519385676520811</v>
-      </c>
-      <c r="AC26" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>20.591841541018994</v>
-      </c>
-      <c r="AD26" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>57.649551002371219</v>
-      </c>
-      <c r="AE26" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>15.736411402157648</v>
-      </c>
-      <c r="AF26" s="4">
-        <f t="shared" ca="1" si="13"/>
-        <v>73.385962404528868</v>
-      </c>
-      <c r="AG26" s="1">
-        <f>(1-$AG$27)*S26/SUM($S$23:$S$26,$S$28)</f>
-        <v>0.11000000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="1">
-        <v>200</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="1">
-        <f>RADIANS(180)</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" ref="J27:J28" si="15">RADIANS(0)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R27" s="1">
-        <f t="shared" si="14"/>
-        <v>1.76</v>
-      </c>
-      <c r="S27" s="1">
-        <v>1</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="U27" s="1">
-        <f>熱伝達率!$F7</f>
-        <v>6.0497346947957293</v>
-      </c>
-      <c r="V27" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="W27" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Y27" s="1">
-        <f>0.012/0.16</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z27" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2531639699224311</v>
-      </c>
-      <c r="AA27" s="1">
-        <f>($D$37*$D$38)/$S27</f>
-        <v>298.43356700023321</v>
-      </c>
-      <c r="AB27" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>28.163761776756154</v>
-      </c>
-      <c r="AC27" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>53.419533911044688</v>
-      </c>
-      <c r="AD27" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>10.072274963167869</v>
-      </c>
-      <c r="AE27" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>-78.907913469869214</v>
-      </c>
-      <c r="AF27" s="4">
-        <f ca="1">SUM($AD27,$AE27)+AA27</f>
-        <v>229.59792849353187</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="H28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="1">
-        <f>RADIANS(0)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="1"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="4"/>
-        <v>550</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R28" s="1">
-        <f t="shared" si="14"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="S28" s="1">
-        <v>1</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="U28" s="1">
-        <f>熱伝達率!$F8</f>
-        <v>6.0497346947957293</v>
-      </c>
-      <c r="V28" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="W28" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Y28" s="1">
-        <f>0.012/0.16</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z28" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2531639699224311</v>
-      </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>19.129163454298595</v>
-      </c>
-      <c r="AC28" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>20.591841541018994</v>
-      </c>
-      <c r="AD28" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>37.54806406059442</v>
-      </c>
-      <c r="AE28" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>-24.250990544954433</v>
-      </c>
-      <c r="AF28" s="4">
-        <f t="shared" ca="1" si="13"/>
-        <v>13.297073515639987</v>
-      </c>
-      <c r="AG28" s="1">
-        <f>(1-$AG$27)*S28/SUM($S$23:$S$26,$S$28)</f>
-        <v>0.11000000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="1">
-        <f>RADIANS(0)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="1">
-        <f>RADIANS(30)</f>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="AC30" s="23" t="str">
-        <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AC23:AC28)</f>
-        <v>20.591841541019, 20.591841541019, 20.591841541019, 20.591841541019, 53.4195339110447, 20.591841541019</v>
-      </c>
-      <c r="AF30" s="23" t="str">
-        <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AF23:AF28)</f>
-        <v>73.3859624045288, 73.3859624045288, 133.814244777708, 73.3859624045289, 229.597928493532, 13.29707351564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="1">
-        <f>D26*SIN(D30)+D27</f>
-        <v>550</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="1">
-        <f>D31*D32</f>
-        <v>55</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1">
-        <f ca="1">SUMPRODUCT($Z$23:$Z$28,$S$23:$S$28)+$D$24*$D$34</f>
-        <v>13.570635903988272</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="1">
-        <f>Q25*S25</f>
-        <v>596.86713400046642</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.83490926199443005</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.71161013710588705</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="22">
-        <v>-5.6023040000000003E-2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="22">
-        <v>-3.2157008046334798E-2</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="1">
-        <f ca="1">SUM($AD$23:$AD$28)</f>
-        <v>298.43356700023344</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="1">
-        <f ca="1">$D$24*$D$34*($D$48-$D$25)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="27"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="1">
-        <f ca="1">SUM($D$45:$D$46)</f>
-        <v>298.43356700023344</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="27"/>
-      <c r="B48" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="5">
-        <f ca="1">$D$48+($D$36-$D$47-D53)/$D$35</f>
-        <v>31.475730658264652</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="1">
-        <f ca="1">SUMPRODUCT($U$23:$U$28,$S$23:$S$28,$AB$23:$AB$28)/SUMPRODUCT($U$23:$U$28,$S$23:$S$28)</f>
-        <v>15.120559479348042</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1">
-        <v>2.7719999999999998</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1">
-        <v>12600</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="20"/>
-      <c r="B52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1">
-        <f ca="1">D48+D37*(1-D38)/D50</f>
-        <v>139.13574761361576</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="21"/>
-      <c r="B53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1">
-        <f ca="1">D50*(D48-D52)</f>
-        <v>-298.43356700023327</v>
+        <v>-268.34955980374781</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>2</v>
